--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,41 @@
         <v>886100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1034500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>1034500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>30500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         <v>30500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>840700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43694,6 +43694,41 @@
         <v>840700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>282400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,41 @@
         <v>282400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>111900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43764,6 +43764,41 @@
         <v>111900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1587000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,41 @@
         <v>1587000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>743000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,41 @@
         <v>743000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>232200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,41 @@
         <v>232200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2606300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43904,6 +43904,41 @@
         <v>2606300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>52100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43939,6 +43939,41 @@
         <v>52100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>315300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43974,6 +43974,41 @@
         <v>315300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>391000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44009,6 +44009,76 @@
         <v>391000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>117100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>241000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,76 @@
         <v>241000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>245500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>516700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44149,6 +44149,41 @@
         <v>516700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>86600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44184,6 +44184,41 @@
         <v>86600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>792400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44219,6 +44219,41 @@
         <v>792400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>368200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,6 +44254,41 @@
         <v>368200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>437100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44289,6 +44289,76 @@
         <v>437100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3350200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>603000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44359,6 +44359,41 @@
         <v>603000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1440500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44394,6 +44394,41 @@
         <v>1440500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1571100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69034,6 +69034,41 @@
         <v>1571100</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>496000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69069,6 +69069,41 @@
         <v>496000</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>515100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69104,6 +69104,41 @@
         <v>515100</v>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>475700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69139,6 +69139,41 @@
         <v>475700</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>1108200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69174,6 +69174,41 @@
         <v>1108200</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>3657200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1949"/>
+  <dimension ref="A1:I1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69209,6 +69209,41 @@
         <v>3657200</v>
       </c>
     </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>389800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1950"/>
+  <dimension ref="A1:I1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69244,6 +69244,41 @@
         <v>389800</v>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>313100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1951"/>
+  <dimension ref="A1:I1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69279,6 +69279,41 @@
         <v>313100</v>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>912300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1952"/>
+  <dimension ref="A1:I1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69314,6 +69314,41 @@
         <v>912300</v>
       </c>
     </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>377100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1953"/>
+  <dimension ref="A1:I1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69349,6 +69349,41 @@
         <v>377100</v>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>696400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1954"/>
+  <dimension ref="A1:I1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69384,6 +69384,41 @@
         <v>696400</v>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>187100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1955"/>
+  <dimension ref="A1:I1956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69419,6 +69419,41 @@
         <v>187100</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>32800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69454,6 +69454,41 @@
         <v>32800</v>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>539700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69489,6 +69489,41 @@
         <v>539700</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>298500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69524,6 +69524,41 @@
         <v>298500</v>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>91600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2171"/>
+  <dimension ref="A1:I2172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76979,6 +76979,41 @@
         <v>91600</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>285700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2172"/>
+  <dimension ref="A1:I2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77014,6 +77014,41 @@
         <v>285700</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>584300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2173"/>
+  <dimension ref="A1:I2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77049,6 +77049,41 @@
         <v>584300</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77084,6 +77084,41 @@
         <v>141000</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>176400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77119,6 +77119,41 @@
         <v>176400</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2176"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77154,6 +77154,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>101800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2177"/>
+  <dimension ref="A1:I2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77189,6 +77189,41 @@
         <v>101800</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>996300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2178"/>
+  <dimension ref="A1:I2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77224,6 +77224,41 @@
         <v>996300</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>844200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77259,6 +77259,41 @@
         <v>844200</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>1681600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77294,6 +77294,41 @@
         <v>1681600</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>742600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77329,6 +77329,76 @@
         <v>742600</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>652800</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>940600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77399,6 +77399,41 @@
         <v>940600</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>349200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77434,6 +77434,111 @@
         <v>349200</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>343100</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>86900</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>643400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77539,6 +77539,41 @@
         <v>643400</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>232000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77574,6 +77574,41 @@
         <v>232000</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>126500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7240.xlsx
+++ b/data/7240.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77609,6 +77609,111 @@
         <v>126500</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>2097500</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>VERTICE</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>1661500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
